--- a/My Stuff/Users.xlsx
+++ b/My Stuff/Users.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\MarTech\My Stuff\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B41F63F6-779B-44D9-A5A7-2FF7A8EE1E75}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{957E0DB1-952D-42BD-B5D0-DA3FD2D191E1}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{FFC916B9-3F1E-4868-9506-46BC22B9FE10}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>Account name on laptop</t>
   </si>
@@ -55,6 +55,12 @@
   </si>
   <si>
     <t>JosephSteelePerkins2</t>
+  </si>
+  <si>
+    <t>Jira name</t>
+  </si>
+  <si>
+    <t>Joseph Steele-Perkins</t>
   </si>
 </sst>
 </file>
@@ -417,10 +423,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE615CC9-BC3B-4288-86F9-C4B39591BF89}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -430,7 +436,7 @@
     <col min="3" max="3" width="26.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -440,8 +446,11 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -451,13 +460,16 @@
       <c r="C2" t="s">
         <v>7</v>
       </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -466,12 +478,15 @@
       </c>
       <c r="C4" t="s">
         <v>9</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{59A47B86-A006-478A-9066-45E4AAD93986}"/>
-    <hyperlink ref="B4" r:id="rId2" display="mailto:josephsteeleperkins@gmail.com" xr:uid="{CA513CCB-DD43-430A-ACCB-A6CCD9E6F426}"/>
+    <hyperlink ref="B4" r:id="rId2" xr:uid="{CA513CCB-DD43-430A-ACCB-A6CCD9E6F426}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>

--- a/My Stuff/Users.xlsx
+++ b/My Stuff/Users.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\MarTech\My Stuff\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{957E0DB1-952D-42BD-B5D0-DA3FD2D191E1}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E0808AE-12DE-45BC-A412-56FE223DA508}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{FFC916B9-3F1E-4868-9506-46BC22B9FE10}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
   <si>
     <t>Account name on laptop</t>
   </si>
@@ -61,6 +61,18 @@
   </si>
   <si>
     <t>Joseph Steele-Perkins</t>
+  </si>
+  <si>
+    <t>SQL Server Instance</t>
+  </si>
+  <si>
+    <t>MSSQLSERVER</t>
+  </si>
+  <si>
+    <t>DEVELOPMENT2</t>
+  </si>
+  <si>
+    <t>LIVE</t>
   </si>
 </sst>
 </file>
@@ -423,10 +435,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE615CC9-BC3B-4288-86F9-C4B39591BF89}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -434,9 +446,11 @@
     <col min="1" max="1" width="22.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="33.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="26.28515625" customWidth="1"/>
+    <col min="4" max="4" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="37.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -449,8 +463,11 @@
       <c r="D1" t="s">
         <v>10</v>
       </c>
+      <c r="E1" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -463,13 +480,19 @@
       <c r="D2" t="s">
         <v>11</v>
       </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
+      <c r="E3" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -481,6 +504,9 @@
       </c>
       <c r="D4" t="s">
         <v>6</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
